--- a/Class_VIII/Assamese/F.A-2_class_VIII.xlsx
+++ b/Class_VIII/Assamese/F.A-2_class_VIII.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="34">
   <si>
     <t xml:space="preserve">Academic session</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t xml:space="preserve">Anuska Hazarika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bitop jyoti Sarma</t>
   </si>
 </sst>
 </file>
@@ -219,7 +222,7 @@
   <dimension ref="A1:N1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D17" activeCellId="0" sqref="D17"/>
+      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1196,13 +1199,314 @@
         <v>26</v>
       </c>
     </row>
-    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H23" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I23" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H24" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I24" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H25" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I25" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="M25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="G26" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H26" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I26" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J26" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="G27" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H27" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="N27" s="0" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="G28" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H28" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J28" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="M28" s="0" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="N28" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="E29" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>25</v>
+      </c>
+      <c r="G29" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="H29" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I29" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="M29" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
